--- a/code/PhaseI/data/iccps/Feeder10.xlsx
+++ b/code/PhaseI/data/iccps/Feeder10.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Time</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Consumer_10_1</t>
+  </si>
+  <si>
+    <t>NetProduction_10</t>
+  </si>
+  <si>
+    <t>NetConsumption_10</t>
   </si>
 </sst>
 </file>
@@ -379,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,9 +396,10 @@
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +442,14 @@
       <c r="N1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -479,8 +492,15 @@
       <c r="N2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>SUM(C2:N2)</f>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -523,8 +543,15 @@
       <c r="N3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="0">SUM(C3:N3)</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -567,8 +594,15 @@
       <c r="N4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -611,8 +645,15 @@
       <c r="N5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -655,8 +696,15 @@
       <c r="N6">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -699,8 +747,15 @@
       <c r="N7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>3.1000000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
@@ -743,8 +798,15 @@
       <c r="N8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>3.1000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -787,8 +849,15 @@
       <c r="N9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>3.1000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -831,8 +900,15 @@
       <c r="N10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>3.1000000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
@@ -875,8 +951,15 @@
       <c r="N11">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -919,8 +1002,15 @@
       <c r="N12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.11458333333333333</v>
       </c>
@@ -963,8 +1053,15 @@
       <c r="N13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
@@ -1007,8 +1104,15 @@
       <c r="N14">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.13541666666666666</v>
       </c>
@@ -1051,8 +1155,15 @@
       <c r="N15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -1095,8 +1206,15 @@
       <c r="N16">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
@@ -1139,8 +1257,15 @@
       <c r="N17">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1183,8 +1308,15 @@
       <c r="N18">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -1227,8 +1359,15 @@
       <c r="N19">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
@@ -1271,8 +1410,15 @@
       <c r="N20">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -1315,8 +1461,15 @@
       <c r="N21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1359,8 +1512,15 @@
       <c r="N22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>3.1000000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -1403,8 +1563,15 @@
       <c r="N23">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>3.1000000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -1447,8 +1614,15 @@
       <c r="N24">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.23958333333333334</v>
       </c>
@@ -1491,8 +1665,15 @@
       <c r="N25">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -1535,8 +1716,15 @@
       <c r="N26">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -1579,8 +1767,15 @@
       <c r="N27">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>5.3000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -1623,8 +1818,15 @@
       <c r="N28">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>5.7000000000000011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -1667,8 +1869,15 @@
       <c r="N29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>0.2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -1711,8 +1920,15 @@
       <c r="N30">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>0.4</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.30208333333333331</v>
       </c>
@@ -1755,8 +1971,15 @@
       <c r="N31">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>0.8</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -1799,8 +2022,15 @@
       <c r="N32">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -1843,8 +2073,15 @@
       <c r="N33">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>1.5</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -1887,8 +2124,15 @@
       <c r="N34">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -1931,8 +2175,15 @@
       <c r="N35">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>2.6</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999984</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -1975,8 +2226,15 @@
       <c r="N36">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>3.1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>7.7999999999999989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -2019,8 +2277,15 @@
       <c r="N37">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>3.8</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>7.8999999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
@@ -2063,8 +2328,15 @@
       <c r="N38">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.38541666666666669</v>
       </c>
@@ -2107,8 +2379,15 @@
       <c r="N39">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>7.8999999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -2151,8 +2430,15 @@
       <c r="N40">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>5.8</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>7.8999999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -2195,8 +2481,15 @@
       <c r="N41">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>6.5</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>7.7999999999999989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -2239,8 +2532,15 @@
       <c r="N42">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>7.2</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999984</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.42708333333333331</v>
       </c>
@@ -2283,8 +2583,15 @@
       <c r="N43">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>7.9</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
@@ -2327,8 +2634,15 @@
       <c r="N44">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>8.6</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.44791666666666669</v>
       </c>
@@ -2371,8 +2685,15 @@
       <c r="N45">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999988</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -2415,8 +2736,15 @@
       <c r="N46">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>10</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
@@ -2459,8 +2787,15 @@
       <c r="N47">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>10.7</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999984</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -2503,8 +2838,15 @@
       <c r="N48">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>11.3</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>7.7999999999999989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -2547,8 +2889,15 @@
       <c r="N49">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>11.9</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.5</v>
       </c>
@@ -2591,8 +2940,15 @@
       <c r="N50">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>12.4</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.51041666666666663</v>
       </c>
@@ -2635,8 +2991,15 @@
       <c r="N51">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>12.9</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -2679,8 +3042,15 @@
       <c r="N52">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>13.3</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999986</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.53125</v>
       </c>
@@ -2723,8 +3093,15 @@
       <c r="N53">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>13.7</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999986</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -2767,8 +3144,15 @@
       <c r="N54">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>14</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.55208333333333337</v>
       </c>
@@ -2811,8 +3195,15 @@
       <c r="N55">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>14.2</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.5625</v>
       </c>
@@ -2855,8 +3246,15 @@
       <c r="N56">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>14.4</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.57291666666666663</v>
       </c>
@@ -2899,8 +3297,15 @@
       <c r="N57">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>14.5</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>7.8999999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -2943,8 +3348,15 @@
       <c r="N58">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>14.5</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999988</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
@@ -2987,8 +3399,15 @@
       <c r="N59">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>14.5</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -3031,8 +3450,15 @@
       <c r="N60">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>14.4</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.61458333333333337</v>
       </c>
@@ -3075,8 +3501,15 @@
       <c r="N61">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>14.2</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.625</v>
       </c>
@@ -3119,8 +3552,15 @@
       <c r="N62">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>13.9</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.63541666666666663</v>
       </c>
@@ -3163,8 +3603,15 @@
       <c r="N63">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>13.6</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -3207,8 +3654,15 @@
       <c r="N64">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>13.2</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.65625</v>
       </c>
@@ -3251,8 +3705,15 @@
       <c r="N65">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>12.8</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -3295,8 +3756,15 @@
       <c r="N66">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>12.3</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.67708333333333337</v>
       </c>
@@ -3339,8 +3807,15 @@
       <c r="N67">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>11.8</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P97" si="1">SUM(C67:N67)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
@@ -3383,8 +3858,15 @@
       <c r="N68">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <v>11.2</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -3427,8 +3909,15 @@
       <c r="N69">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <v>10.6</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -3471,8 +3960,15 @@
       <c r="N70">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>9.9</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
@@ -3515,8 +4011,15 @@
       <c r="N71">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -3559,8 +4062,15 @@
       <c r="N72">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <v>8.5</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.73958333333333337</v>
       </c>
@@ -3603,8 +4113,15 @@
       <c r="N73">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <v>7.8</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.75</v>
       </c>
@@ -3647,8 +4164,15 @@
       <c r="N74">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <v>7.1</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.76041666666666663</v>
       </c>
@@ -3691,8 +4215,15 @@
       <c r="N75">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>6.4</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="1"/>
+        <v>7.5999999999999988</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -3735,8 +4266,15 @@
       <c r="N76">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <v>5.7</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="1"/>
+        <v>7.8999999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.78125</v>
       </c>
@@ -3779,8 +4317,15 @@
       <c r="N77">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <v>5</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -3823,8 +4368,15 @@
       <c r="N78">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78">
+        <v>4.3</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -3867,8 +4419,15 @@
       <c r="N79">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <v>3.7</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999982</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.8125</v>
       </c>
@@ -3911,8 +4470,15 @@
       <c r="N80">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <v>3.1</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -3955,8 +4521,15 @@
       <c r="N81">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <v>2.5</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -3999,8 +4572,15 @@
       <c r="N82">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <v>2</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.84375</v>
       </c>
@@ -4043,8 +4623,15 @@
       <c r="N83">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <v>1.5</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -4087,8 +4674,15 @@
       <c r="N84">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.86458333333333337</v>
       </c>
@@ -4131,8 +4725,15 @@
       <c r="N85">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <v>0.7</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999986</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.875</v>
       </c>
@@ -4175,8 +4776,15 @@
       <c r="N86">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <v>0.4</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999989</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.88541666666666663</v>
       </c>
@@ -4219,8 +4827,15 @@
       <c r="N87">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <v>0.2</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -4263,8 +4878,15 @@
       <c r="N88">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.90625</v>
       </c>
@@ -4307,8 +4929,15 @@
       <c r="N89">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -4351,8 +4980,15 @@
       <c r="N90">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.92708333333333337</v>
       </c>
@@ -4395,8 +5031,15 @@
       <c r="N91">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="1"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.9375</v>
       </c>
@@ -4439,8 +5082,15 @@
       <c r="N92">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="1"/>
+        <v>7.7999999999999989</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.94791666666666663</v>
       </c>
@@ -4483,8 +5133,15 @@
       <c r="N93">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="1"/>
+        <v>7.5999999999999988</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -4527,8 +5184,15 @@
       <c r="N94">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.96875</v>
       </c>
@@ -4571,8 +5235,15 @@
       <c r="N95">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -4615,8 +5286,15 @@
       <c r="N96">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="1"/>
+        <v>5.7000000000000011</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.98958333333333337</v>
       </c>
@@ -4658,6 +5336,13 @@
       </c>
       <c r="N97">
         <v>0.4</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="1"/>
+        <v>5.4000000000000012</v>
       </c>
     </row>
   </sheetData>
